--- a/Examples/ICT-Gap-Analysis-Template.xlsx
+++ b/Examples/ICT-Gap-Analysis-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\AIELaptop\AIE\2021\Content\Professional-Studies-2\Topics\Assessment Briefs\Assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s213090\Documents\GameBusinessStudies\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE1E2F-3B90-4839-A1E9-4D45064F9D1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BFD71-EF89-49C8-B9F2-14BE369B788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document History" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
   <si>
     <t>First Draft</t>
   </si>
@@ -96,9 +96,6 @@
     <t>COMPLETE</t>
   </si>
   <si>
-    <t>Regular cleaning by staff to prevent rotten food</t>
-  </si>
-  <si>
     <t>J. Smith</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>All staff</t>
   </si>
   <si>
-    <t>New staff &amp; constractors</t>
-  </si>
-  <si>
     <t>WHO'S AFFECTED?</t>
   </si>
   <si>
@@ -280,6 +274,33 @@
   </si>
   <si>
     <t>Team members using own devices</t>
+  </si>
+  <si>
+    <t>New staff &amp; contractors</t>
+  </si>
+  <si>
+    <t>Daily Backups to Online source control and weekly backups to external HDD</t>
+  </si>
+  <si>
+    <t>5-6 VR headsets for multiple staff to use.</t>
+  </si>
+  <si>
+    <t>NBN to the office for all staff to access</t>
+  </si>
+  <si>
+    <t>Work laptops provided with all required peripherals at each desk</t>
+  </si>
+  <si>
+    <t>Temp key cards with time expiration and exisiting perm keycards.</t>
+  </si>
+  <si>
+    <t>Individual accounts and passwords for every staff member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA and Testing </t>
+  </si>
+  <si>
+    <t>Developers, Programmers and Artists</t>
   </si>
 </sst>
 </file>
@@ -2256,11 +2277,11 @@
   </sheetPr>
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2291,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="5" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="9" width="27.375" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
@@ -2280,7 +2301,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -2290,7 +2311,7 @@
     </row>
     <row r="2" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>12</v>
@@ -2305,13 +2326,13 @@
         <v>14</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>13</v>
@@ -2328,34 +2349,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="31" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -2364,32 +2385,32 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>39</v>
-      </c>
       <c r="E4" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="26" t="s">
-        <v>18</v>
-      </c>
       <c r="L4" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
@@ -2398,14 +2419,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
@@ -2418,14 +2445,20 @@
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
@@ -2438,35 +2471,45 @@
         <v>5</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="E7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="2:12" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -2474,20 +2517,26 @@
       <c r="K8" s="26"/>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="2:12" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
@@ -2500,13 +2549,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="F10" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -2851,11 +2902,11 @@
   </sheetPr>
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2874,7 +2925,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -2884,7 +2935,7 @@
     </row>
     <row r="2" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>12</v>
@@ -2899,13 +2950,13 @@
         <v>14</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>13</v>
@@ -2922,31 +2973,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>45</v>
-      </c>
       <c r="J3" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>3</v>
@@ -2958,29 +3009,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="H4" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="27"/>
     </row>
@@ -2990,25 +3043,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="27"/>
     </row>
@@ -3018,23 +3071,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="27"/>
     </row>
@@ -3044,17 +3099,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -3068,15 +3123,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -3090,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>58</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -3110,13 +3165,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="26" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -3470,26 +3525,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/ICT-Gap-Analysis-Template.xlsx
+++ b/Examples/ICT-Gap-Analysis-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s213090\Documents\GameBusinessStudies\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BFD71-EF89-49C8-B9F2-14BE369B788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8B036A-2389-40E3-891E-AC7ED8076AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document History" sheetId="4" r:id="rId1"/>
@@ -45,18 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
   <si>
     <t>First Draft</t>
   </si>
   <si>
     <t>j. Smith</t>
-  </si>
-  <si>
-    <t>Example Row</t>
-  </si>
-  <si>
-    <t>Example Text</t>
   </si>
   <si>
     <t>NOTES</t>
@@ -96,15 +90,9 @@
     <t>COMPLETE</t>
   </si>
   <si>
-    <t>J. Smith</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>100% on-time delivery</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>Using personal licenses for all software</t>
   </si>
   <si>
-    <t>Example notes</t>
-  </si>
-  <si>
     <t>HARDWARE GAP ANALYSIS</t>
   </si>
   <si>
@@ -301,6 +286,168 @@
   </si>
   <si>
     <t>Developers, Programmers and Artists</t>
+  </si>
+  <si>
+    <t>Automatic online source control and external HDD backups</t>
+  </si>
+  <si>
+    <t>Manual online source control and external HDD backups</t>
+  </si>
+  <si>
+    <t>Purchase various different types of VR headsets and set up accounts associated with them if required</t>
+  </si>
+  <si>
+    <t>Arrange for an NBN business plan to be installed at office location</t>
+  </si>
+  <si>
+    <t>Arrange for temp key card access that can be set up to give timed access</t>
+  </si>
+  <si>
+    <t>Harley</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Are we making VR projects</t>
+  </si>
+  <si>
+    <t>Don't buy unless the contract work dictates we need to make something in VR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheapest option available </t>
+  </si>
+  <si>
+    <t>Fast and stable internet connection is a necessatiy</t>
+  </si>
+  <si>
+    <t>Get someone to swipe them into building when needed</t>
+  </si>
+  <si>
+    <t>Temp cards practical and should have some handy</t>
+  </si>
+  <si>
+    <t>Create a user login system for staff members</t>
+  </si>
+  <si>
+    <t>Better system than trying to remember multiple paswords</t>
+  </si>
+  <si>
+    <t>Facial recognition</t>
+  </si>
+  <si>
+    <t>OneDrive cloud storage and file sharing for business</t>
+  </si>
+  <si>
+    <t>Organise a business account for all required staff to use</t>
+  </si>
+  <si>
+    <t>Seek out an alternative for cloud services</t>
+  </si>
+  <si>
+    <t>Monitor as business proceeds and re-evealuate if needed in future.</t>
+  </si>
+  <si>
+    <t>Using Unity don’t need unreal</t>
+  </si>
+  <si>
+    <t>Automatic prefered so no one has to manually undertake the task.</t>
+  </si>
+  <si>
+    <t>Internal SSD/HDD for every computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase viable PC's with appropriate specs to include SSD and HDD </t>
+  </si>
+  <si>
+    <t>Only have SSD and rely on cloud services or Git for storage</t>
+  </si>
+  <si>
+    <t>Less cost and everyone can access anything from the cloud storage.</t>
+  </si>
+  <si>
+    <t>Purchase standard licensing for small teams</t>
+  </si>
+  <si>
+    <t>Purchase premium license in anticipation for expansion</t>
+  </si>
+  <si>
+    <t>Need for making the games in teams and earning money.</t>
+  </si>
+  <si>
+    <t>Purcahse laptops with appropriate specs for current team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lease or rent laptops </t>
+  </si>
+  <si>
+    <t>Could be smart to trial laptops and evaluate spec requirements before purchasing some.</t>
+  </si>
+  <si>
+    <t>Need for making games in teams and earning money</t>
+  </si>
+  <si>
+    <t>Purchase and use Windows Enetrprise</t>
+  </si>
+  <si>
+    <t>Use Linux or Mac</t>
+  </si>
+  <si>
+    <t>Stick with windows home until team expands or require enterprise version</t>
+  </si>
+  <si>
+    <t>Studio Licensing for Hack'n'Plan</t>
+  </si>
+  <si>
+    <t>Free version</t>
+  </si>
+  <si>
+    <t>Trello is fine for now, may change in future</t>
+  </si>
+  <si>
+    <t>Assorted mobile devices owned by company</t>
+  </si>
+  <si>
+    <t>Buy various phone types</t>
+  </si>
+  <si>
+    <t>Lease or rent different types</t>
+  </si>
+  <si>
+    <t>Lease for 2 years then get newer version of phone to keep up to date</t>
+  </si>
+  <si>
+    <t>Small bussiness premium Anti-Virus software</t>
+  </si>
+  <si>
+    <t>Buy a reputible brand anti-virus software</t>
+  </si>
+  <si>
+    <t>Get the cheapest</t>
+  </si>
+  <si>
+    <t>Required as we don’t want security threats</t>
+  </si>
+  <si>
+    <t>Set up account for the business</t>
+  </si>
+  <si>
+    <t>Yes - 1</t>
+  </si>
+  <si>
+    <t>Free and easy to use</t>
+  </si>
+  <si>
+    <t>Search other alternatives</t>
+  </si>
+  <si>
+    <t>Initial document creation</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>Document updated with business requirements</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2273,7 @@
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -2151,24 +2298,24 @@
     </row>
     <row r="2" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="13">
         <v>41255</v>
@@ -2180,15 +2327,25 @@
         <v>1</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="9">
+        <v>44785</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -2281,7 +2438,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2301,7 +2458,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -2311,37 +2468,37 @@
     </row>
     <row r="2" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="31" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
@@ -2349,68 +2506,70 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="31" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="31" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B4" s="25">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="26"/>
+        <v>16</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="H4" s="26" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
@@ -2419,77 +2578,107 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="54" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="H6" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B8" s="20">
@@ -2497,25 +2686,35 @@
         <v>6</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
@@ -2523,47 +2722,71 @@
         <v>7</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="H9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B10" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="26"/>
+        <v>63</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>96</v>
+      </c>
       <c r="F10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="20">
@@ -2864,7 +3087,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I28" xr:uid="{902461CF-2D74-45B6-80ED-B5762F3F11D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I28" xr:uid="{902461CF-2D74-45B6-80ED-B5762F3F11D0}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2886,7 +3109,7 @@
           <x14:formula1>
             <xm:f>Ref!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K28</xm:sqref>
+          <xm:sqref>K3 K5:K28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2906,7 +3129,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2925,7 +3148,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -2935,37 +3158,37 @@
     </row>
     <row r="2" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="30" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
@@ -2973,34 +3196,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" s="27" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:12" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -3009,33 +3232,35 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="2:12" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
@@ -3043,55 +3268,71 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="K5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="2:12" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="32" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>86</v>
+      </c>
       <c r="K6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="2:12" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="B7" s="20">
@@ -3099,65 +3340,107 @@
         <v>5</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="32" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="2:12" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="2:12" s="32" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="B10" s="20">
@@ -3165,21 +3448,35 @@
         <v>8</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20">
@@ -3479,8 +3776,8 @@
       <formula>NOT(ISERROR(SEARCH("YES",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I28" xr:uid="{CFCC56A9-F04E-4187-B22B-FC9E4B1205F5}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I28" xr:uid="{CFCC56A9-F04E-4187-B22B-FC9E4B1205F5}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3491,7 +3788,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DF0FB05-06F9-4AEB-B0CD-E1900E898650}">
           <x14:formula1>
             <xm:f>Ref!$A$1:$A$3</xm:f>
@@ -3525,26 +3822,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
